--- a/data/herostage.xlsx
+++ b/data/herostage.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t xml:space="preserve"> 字段</t>
   </si>
@@ -104,13 +104,19 @@
     <t>2</t>
   </si>
   <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>END</t>
   </si>
   <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>99</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1278,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1366,7 +1372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:4">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1375,21 +1381,6 @@
       </c>
       <c r="D4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="H4" s="2">
-        <v>50</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="2:9">
@@ -1403,16 +1394,16 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F5">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H5" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
@@ -1429,55 +1420,75 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H6" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
+    <row r="7" spans="2:9">
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H7" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:9">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>103</v>
+      </c>
+      <c r="F8">
+        <v>103</v>
+      </c>
+      <c r="G8">
+        <v>103</v>
+      </c>
+      <c r="H8" s="2">
+        <v>53</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="3:9">
       <c r="C9" s="1"/>

--- a/data/herostage.xlsx
+++ b/data/herostage.xlsx
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1372,7 +1372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:9">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1381,6 +1381,21 @@
       </c>
       <c r="D4" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4" s="2">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="2:9">
@@ -1397,13 +1412,13 @@
         <v>100</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H5" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
@@ -1423,13 +1438,13 @@
         <v>101</v>
       </c>
       <c r="F6">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="G6">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="H6" s="2">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
@@ -1449,13 +1464,13 @@
         <v>102</v>
       </c>
       <c r="F7">
-        <v>102</v>
+        <v>400</v>
       </c>
       <c r="G7">
-        <v>102</v>
+        <v>250</v>
       </c>
       <c r="H7" s="2">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
@@ -1478,13 +1493,13 @@
         <v>103</v>
       </c>
       <c r="F8">
-        <v>103</v>
+        <v>500</v>
       </c>
       <c r="G8">
-        <v>103</v>
+        <v>300</v>
       </c>
       <c r="H8" s="2">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
